--- a/02_設計/00_サンプル/画面アクション定義.xlsx
+++ b/02_設計/00_サンプル/画面アクション定義.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f081ddaca2e466ec/ドキュメント/2021年技術研修/設計書テンプレート/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="443" documentId="11_AD4D066CA252ABDACC1048E061D0D8A073EEDF52" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{83497777-3615-40B4-AA9B-FCC3504C761F}"/>
+  <xr:revisionPtr revIDLastSave="447" documentId="11_AD4D066CA252ABDACC1048E061D0D8A073EEDF52" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE317EA1-D1EF-4184-B626-4930D6702D27}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -967,10 +967,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -992,33 +1019,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2160,7 +2160,7 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O3" sqref="O3:AQ3"/>
+      <selection pane="bottomLeft" activeCell="M1" sqref="M1:P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.296875" defaultRowHeight="22.2" customHeight="1"/>
@@ -2169,22 +2169,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="22.2" customHeight="1" thickTop="1">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
       <c r="M1" s="12" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="N1" s="12"/>
       <c r="O1" s="12"/>
@@ -2219,167 +2219,167 @@
       <c r="AN1" s="12"/>
       <c r="AO1" s="12"/>
       <c r="AP1" s="12"/>
-      <c r="AQ1" s="13"/>
+      <c r="AQ1" s="23"/>
     </row>
     <row r="2" spans="1:43" ht="22.2" customHeight="1">
-      <c r="A2" s="27"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="14"/>
-      <c r="U2" s="14"/>
-      <c r="V2" s="14"/>
-      <c r="W2" s="14"/>
-      <c r="X2" s="14"/>
-      <c r="Y2" s="14"/>
-      <c r="Z2" s="14"/>
-      <c r="AA2" s="14" t="s">
+      <c r="A2" s="16"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
+      <c r="W2" s="13"/>
+      <c r="X2" s="13"/>
+      <c r="Y2" s="13"/>
+      <c r="Z2" s="13"/>
+      <c r="AA2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="AB2" s="14"/>
-      <c r="AC2" s="14"/>
-      <c r="AD2" s="14"/>
-      <c r="AE2" s="14"/>
-      <c r="AF2" s="14"/>
-      <c r="AG2" s="14"/>
-      <c r="AH2" s="14"/>
-      <c r="AI2" s="14" t="s">
+      <c r="AB2" s="13"/>
+      <c r="AC2" s="13"/>
+      <c r="AD2" s="13"/>
+      <c r="AE2" s="13"/>
+      <c r="AF2" s="13"/>
+      <c r="AG2" s="13"/>
+      <c r="AH2" s="13"/>
+      <c r="AI2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="AJ2" s="14"/>
-      <c r="AK2" s="14"/>
-      <c r="AL2" s="14"/>
-      <c r="AM2" s="14"/>
-      <c r="AN2" s="14"/>
-      <c r="AO2" s="14"/>
-      <c r="AP2" s="14"/>
-      <c r="AQ2" s="15"/>
+      <c r="AJ2" s="13"/>
+      <c r="AK2" s="13"/>
+      <c r="AL2" s="13"/>
+      <c r="AM2" s="13"/>
+      <c r="AN2" s="13"/>
+      <c r="AO2" s="13"/>
+      <c r="AP2" s="13"/>
+      <c r="AQ2" s="24"/>
     </row>
     <row r="3" spans="1:43" ht="22.2" customHeight="1" thickBot="1">
-      <c r="A3" s="29"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="18" t="s">
+      <c r="A3" s="18"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="N3" s="18"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="16"/>
-      <c r="U3" s="16"/>
-      <c r="V3" s="16"/>
-      <c r="W3" s="16"/>
-      <c r="X3" s="16"/>
-      <c r="Y3" s="16"/>
-      <c r="Z3" s="16"/>
-      <c r="AA3" s="16"/>
-      <c r="AB3" s="16"/>
-      <c r="AC3" s="16"/>
-      <c r="AD3" s="16"/>
-      <c r="AE3" s="16"/>
-      <c r="AF3" s="16"/>
-      <c r="AG3" s="16"/>
-      <c r="AH3" s="16"/>
-      <c r="AI3" s="16"/>
-      <c r="AJ3" s="16"/>
-      <c r="AK3" s="16"/>
-      <c r="AL3" s="16"/>
-      <c r="AM3" s="16"/>
-      <c r="AN3" s="16"/>
-      <c r="AO3" s="16"/>
-      <c r="AP3" s="16"/>
-      <c r="AQ3" s="17"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="25"/>
+      <c r="S3" s="25"/>
+      <c r="T3" s="25"/>
+      <c r="U3" s="25"/>
+      <c r="V3" s="25"/>
+      <c r="W3" s="25"/>
+      <c r="X3" s="25"/>
+      <c r="Y3" s="25"/>
+      <c r="Z3" s="25"/>
+      <c r="AA3" s="25"/>
+      <c r="AB3" s="25"/>
+      <c r="AC3" s="25"/>
+      <c r="AD3" s="25"/>
+      <c r="AE3" s="25"/>
+      <c r="AF3" s="25"/>
+      <c r="AG3" s="25"/>
+      <c r="AH3" s="25"/>
+      <c r="AI3" s="25"/>
+      <c r="AJ3" s="25"/>
+      <c r="AK3" s="25"/>
+      <c r="AL3" s="25"/>
+      <c r="AM3" s="25"/>
+      <c r="AN3" s="25"/>
+      <c r="AO3" s="25"/>
+      <c r="AP3" s="25"/>
+      <c r="AQ3" s="26"/>
     </row>
     <row r="4" spans="1:43" ht="22.2" customHeight="1" thickTop="1"/>
     <row r="5" spans="1:43" ht="22.2" customHeight="1">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="22" t="s">
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="22" t="s">
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="22" t="s">
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="24"/>
-      <c r="S5" s="22" t="s">
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="22"/>
+      <c r="S5" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="T5" s="23"/>
-      <c r="U5" s="23"/>
-      <c r="V5" s="23"/>
-      <c r="W5" s="24"/>
-      <c r="X5" s="22" t="s">
+      <c r="T5" s="21"/>
+      <c r="U5" s="21"/>
+      <c r="V5" s="21"/>
+      <c r="W5" s="22"/>
+      <c r="X5" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="Y5" s="23"/>
-      <c r="Z5" s="23"/>
-      <c r="AA5" s="23"/>
-      <c r="AB5" s="23"/>
-      <c r="AC5" s="23"/>
-      <c r="AD5" s="23"/>
-      <c r="AE5" s="23"/>
-      <c r="AF5" s="24"/>
-      <c r="AG5" s="22" t="s">
+      <c r="Y5" s="21"/>
+      <c r="Z5" s="21"/>
+      <c r="AA5" s="21"/>
+      <c r="AB5" s="21"/>
+      <c r="AC5" s="21"/>
+      <c r="AD5" s="21"/>
+      <c r="AE5" s="21"/>
+      <c r="AF5" s="22"/>
+      <c r="AG5" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="AH5" s="23"/>
-      <c r="AI5" s="23"/>
-      <c r="AJ5" s="23"/>
-      <c r="AK5" s="23"/>
-      <c r="AL5" s="24"/>
-      <c r="AM5" s="22" t="s">
+      <c r="AH5" s="21"/>
+      <c r="AI5" s="21"/>
+      <c r="AJ5" s="21"/>
+      <c r="AK5" s="21"/>
+      <c r="AL5" s="22"/>
+      <c r="AM5" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="AN5" s="23"/>
-      <c r="AO5" s="23"/>
-      <c r="AP5" s="23"/>
-      <c r="AQ5" s="24"/>
+      <c r="AN5" s="21"/>
+      <c r="AO5" s="21"/>
+      <c r="AP5" s="21"/>
+      <c r="AQ5" s="22"/>
     </row>
     <row r="6" spans="1:43" ht="22.2" customHeight="1">
       <c r="A6" s="8"/>
@@ -3283,8 +3283,6 @@
     </row>
   </sheetData>
   <mergeCells count="123">
-    <mergeCell ref="AG5:AL5"/>
-    <mergeCell ref="AM5:AQ5"/>
     <mergeCell ref="S6:W6"/>
     <mergeCell ref="X6:AF6"/>
     <mergeCell ref="AG6:AL6"/>
@@ -3297,6 +3295,16 @@
     <mergeCell ref="I6:L9"/>
     <mergeCell ref="E6:H9"/>
     <mergeCell ref="A6:D9"/>
+    <mergeCell ref="AM7:AQ7"/>
+    <mergeCell ref="S7:W7"/>
+    <mergeCell ref="X7:AF7"/>
+    <mergeCell ref="AG7:AL7"/>
+    <mergeCell ref="S8:W8"/>
+    <mergeCell ref="X8:AF8"/>
+    <mergeCell ref="AG8:AL8"/>
+    <mergeCell ref="AM8:AQ8"/>
+    <mergeCell ref="S9:W9"/>
+    <mergeCell ref="X9:AF9"/>
     <mergeCell ref="Q1:Z1"/>
     <mergeCell ref="Q2:Z2"/>
     <mergeCell ref="A1:L3"/>
@@ -3314,16 +3322,8 @@
     <mergeCell ref="M1:P1"/>
     <mergeCell ref="M2:P2"/>
     <mergeCell ref="M3:N3"/>
-    <mergeCell ref="AM7:AQ7"/>
-    <mergeCell ref="S7:W7"/>
-    <mergeCell ref="X7:AF7"/>
-    <mergeCell ref="AG7:AL7"/>
-    <mergeCell ref="S8:W8"/>
-    <mergeCell ref="X8:AF8"/>
-    <mergeCell ref="AG8:AL8"/>
-    <mergeCell ref="AM8:AQ8"/>
-    <mergeCell ref="S9:W9"/>
-    <mergeCell ref="X9:AF9"/>
+    <mergeCell ref="AG5:AL5"/>
+    <mergeCell ref="AM5:AQ5"/>
     <mergeCell ref="AG9:AL9"/>
     <mergeCell ref="AM9:AQ9"/>
     <mergeCell ref="A10:D13"/>
@@ -3424,7 +3424,7 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:L3"/>
+      <selection pane="bottomLeft" activeCell="Q2" sqref="Q2:Z2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.296875" defaultRowHeight="22.2" customHeight="1"/>
@@ -3433,22 +3433,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="22.2" customHeight="1" thickTop="1">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
       <c r="M1" s="12" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="N1" s="12"/>
       <c r="O1" s="12"/>
@@ -3489,175 +3489,175 @@
       <c r="AN1" s="12"/>
       <c r="AO1" s="12"/>
       <c r="AP1" s="12"/>
-      <c r="AQ1" s="13"/>
+      <c r="AQ1" s="23"/>
     </row>
     <row r="2" spans="1:43" ht="22.2" customHeight="1">
-      <c r="A2" s="27"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14" t="s">
+      <c r="A2" s="16"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="14"/>
-      <c r="U2" s="14"/>
-      <c r="V2" s="14"/>
-      <c r="W2" s="14"/>
-      <c r="X2" s="14"/>
-      <c r="Y2" s="14"/>
-      <c r="Z2" s="14"/>
-      <c r="AA2" s="14" t="s">
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
+      <c r="W2" s="13"/>
+      <c r="X2" s="13"/>
+      <c r="Y2" s="13"/>
+      <c r="Z2" s="13"/>
+      <c r="AA2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="AB2" s="14"/>
+      <c r="AB2" s="13"/>
       <c r="AC2" s="43">
         <v>44365</v>
       </c>
-      <c r="AD2" s="14"/>
-      <c r="AE2" s="14"/>
-      <c r="AF2" s="14"/>
-      <c r="AG2" s="14"/>
-      <c r="AH2" s="14"/>
-      <c r="AI2" s="14" t="s">
+      <c r="AD2" s="13"/>
+      <c r="AE2" s="13"/>
+      <c r="AF2" s="13"/>
+      <c r="AG2" s="13"/>
+      <c r="AH2" s="13"/>
+      <c r="AI2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="AJ2" s="14"/>
-      <c r="AK2" s="14" t="s">
+      <c r="AJ2" s="13"/>
+      <c r="AK2" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="AL2" s="14"/>
-      <c r="AM2" s="14"/>
-      <c r="AN2" s="14"/>
-      <c r="AO2" s="14"/>
-      <c r="AP2" s="14"/>
-      <c r="AQ2" s="15"/>
+      <c r="AL2" s="13"/>
+      <c r="AM2" s="13"/>
+      <c r="AN2" s="13"/>
+      <c r="AO2" s="13"/>
+      <c r="AP2" s="13"/>
+      <c r="AQ2" s="24"/>
     </row>
     <row r="3" spans="1:43" ht="22.2" customHeight="1" thickBot="1">
-      <c r="A3" s="29"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="18" t="s">
+      <c r="A3" s="18"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="N3" s="18"/>
-      <c r="O3" s="16" t="s">
+      <c r="N3" s="27"/>
+      <c r="O3" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="16"/>
-      <c r="U3" s="16"/>
-      <c r="V3" s="16"/>
-      <c r="W3" s="16"/>
-      <c r="X3" s="16"/>
-      <c r="Y3" s="16"/>
-      <c r="Z3" s="16"/>
-      <c r="AA3" s="16"/>
-      <c r="AB3" s="16"/>
-      <c r="AC3" s="16"/>
-      <c r="AD3" s="16"/>
-      <c r="AE3" s="16"/>
-      <c r="AF3" s="16"/>
-      <c r="AG3" s="16"/>
-      <c r="AH3" s="16"/>
-      <c r="AI3" s="16"/>
-      <c r="AJ3" s="16"/>
-      <c r="AK3" s="16"/>
-      <c r="AL3" s="16"/>
-      <c r="AM3" s="16"/>
-      <c r="AN3" s="16"/>
-      <c r="AO3" s="16"/>
-      <c r="AP3" s="16"/>
-      <c r="AQ3" s="17"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="25"/>
+      <c r="S3" s="25"/>
+      <c r="T3" s="25"/>
+      <c r="U3" s="25"/>
+      <c r="V3" s="25"/>
+      <c r="W3" s="25"/>
+      <c r="X3" s="25"/>
+      <c r="Y3" s="25"/>
+      <c r="Z3" s="25"/>
+      <c r="AA3" s="25"/>
+      <c r="AB3" s="25"/>
+      <c r="AC3" s="25"/>
+      <c r="AD3" s="25"/>
+      <c r="AE3" s="25"/>
+      <c r="AF3" s="25"/>
+      <c r="AG3" s="25"/>
+      <c r="AH3" s="25"/>
+      <c r="AI3" s="25"/>
+      <c r="AJ3" s="25"/>
+      <c r="AK3" s="25"/>
+      <c r="AL3" s="25"/>
+      <c r="AM3" s="25"/>
+      <c r="AN3" s="25"/>
+      <c r="AO3" s="25"/>
+      <c r="AP3" s="25"/>
+      <c r="AQ3" s="26"/>
     </row>
     <row r="4" spans="1:43" ht="22.2" customHeight="1" thickTop="1"/>
     <row r="5" spans="1:43" ht="22.2" customHeight="1">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="22" t="s">
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="22" t="s">
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="22" t="s">
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="24"/>
-      <c r="S5" s="22" t="s">
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="22"/>
+      <c r="S5" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="T5" s="23"/>
-      <c r="U5" s="23"/>
-      <c r="V5" s="23"/>
-      <c r="W5" s="24"/>
-      <c r="X5" s="22" t="s">
+      <c r="T5" s="21"/>
+      <c r="U5" s="21"/>
+      <c r="V5" s="21"/>
+      <c r="W5" s="22"/>
+      <c r="X5" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="Y5" s="23"/>
-      <c r="Z5" s="23"/>
-      <c r="AA5" s="23"/>
-      <c r="AB5" s="23"/>
-      <c r="AC5" s="23"/>
-      <c r="AD5" s="23"/>
-      <c r="AE5" s="23"/>
-      <c r="AF5" s="24"/>
-      <c r="AG5" s="22" t="s">
+      <c r="Y5" s="21"/>
+      <c r="Z5" s="21"/>
+      <c r="AA5" s="21"/>
+      <c r="AB5" s="21"/>
+      <c r="AC5" s="21"/>
+      <c r="AD5" s="21"/>
+      <c r="AE5" s="21"/>
+      <c r="AF5" s="22"/>
+      <c r="AG5" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="AH5" s="23"/>
-      <c r="AI5" s="23"/>
-      <c r="AJ5" s="23"/>
-      <c r="AK5" s="23"/>
-      <c r="AL5" s="24"/>
-      <c r="AM5" s="22" t="s">
+      <c r="AH5" s="21"/>
+      <c r="AI5" s="21"/>
+      <c r="AJ5" s="21"/>
+      <c r="AK5" s="21"/>
+      <c r="AL5" s="22"/>
+      <c r="AM5" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="AN5" s="23"/>
-      <c r="AO5" s="23"/>
-      <c r="AP5" s="23"/>
-      <c r="AQ5" s="24"/>
+      <c r="AN5" s="21"/>
+      <c r="AO5" s="21"/>
+      <c r="AP5" s="21"/>
+      <c r="AQ5" s="22"/>
     </row>
     <row r="6" spans="1:43" ht="22.2" customHeight="1">
       <c r="A6" s="8" t="s">

--- a/02_設計/00_サンプル/画面アクション定義.xlsx
+++ b/02_設計/00_サンプル/画面アクション定義.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f081ddaca2e466ec/ドキュメント/2021年技術研修/設計書テンプレート/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f081ddaca2e466ec/ドキュメント/2021年技術研修/設計書テンプレート/サンプル/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="447" documentId="11_AD4D066CA252ABDACC1048E061D0D8A073EEDF52" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE317EA1-D1EF-4184-B626-4930D6702D27}"/>
+  <xr:revisionPtr revIDLastSave="463" documentId="11_AD4D066CA252ABDACC1048E061D0D8A073EEDF52" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C3279897-347C-41DB-BAA7-63F7FBA7FB12}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="2">画面入出力項目一覧!$A$1:$AQ$25</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'画面入出力項目一覧 (サンプル)'!$A$1:$AQ$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'画面入出力項目一覧 (サンプル)'!$A$1:$AQ$25</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$M$24</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -100,22 +100,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S5" authorId="0" shapeId="0" xr:uid="{003AFB21-AA27-47C5-9094-CF90890F7A41}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>アクションの処理について入力となる情報を記述する　（検索するテーブル名　など）</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="X5" authorId="0" shapeId="0" xr:uid="{0814A4A3-7AC4-4C91-ADBF-E3032DB9B13F}">
+    <comment ref="S5" authorId="0" shapeId="0" xr:uid="{0814A4A3-7AC4-4C91-ADBF-E3032DB9B13F}">
       <text>
         <r>
           <rPr>
@@ -134,7 +119,37 @@
         </r>
       </text>
     </comment>
-    <comment ref="AG5" authorId="0" shapeId="0" xr:uid="{583C5853-1EE9-4767-873B-BC8EF5BF1821}">
+    <comment ref="AB5" authorId="0" shapeId="0" xr:uid="{003AFB21-AA27-47C5-9094-CF90890F7A41}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>アクションの処理について入力となる情報を記述する　（検索するテーブル名　など）</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AG5" authorId="0" shapeId="0" xr:uid="{C37A3BAE-9C55-470A-8755-7742A09519B3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>アクションの処理によって出力する情報を記述する</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AL5" authorId="0" shapeId="0" xr:uid="{583C5853-1EE9-4767-873B-BC8EF5BF1821}">
       <text>
         <r>
           <rPr>
@@ -146,21 +161,6 @@
             <charset val="128"/>
           </rPr>
           <t>処理後に遷移する画面の名称</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AM5" authorId="0" shapeId="0" xr:uid="{C37A3BAE-9C55-470A-8755-7742A09519B3}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>アクションの処理によって出力する情報を記述する</t>
         </r>
       </text>
     </comment>
@@ -226,22 +226,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S5" authorId="0" shapeId="0" xr:uid="{0E2DE226-B94D-46EE-88B7-79B3FE2902B0}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>アクションの処理について入力となる情報を記述する　（検索するテーブル名　など）</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="X5" authorId="0" shapeId="0" xr:uid="{93D6EB72-752A-4F0F-BAE5-415C668CE810}">
+    <comment ref="S5" authorId="0" shapeId="0" xr:uid="{93D6EB72-752A-4F0F-BAE5-415C668CE810}">
       <text>
         <r>
           <rPr>
@@ -260,7 +245,37 @@
         </r>
       </text>
     </comment>
-    <comment ref="AG5" authorId="0" shapeId="0" xr:uid="{49FA89F7-AFA6-4F2C-B625-F39B92B1EA08}">
+    <comment ref="AB5" authorId="0" shapeId="0" xr:uid="{0E2DE226-B94D-46EE-88B7-79B3FE2902B0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>アクションの処理について入力となる情報を記述する　（検索するテーブル名　など）</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AG5" authorId="0" shapeId="0" xr:uid="{43C3068B-D016-4C39-9258-F192A9511F9C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>アクションの処理によって出力する情報を記述する</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AL5" authorId="0" shapeId="0" xr:uid="{49FA89F7-AFA6-4F2C-B625-F39B92B1EA08}">
       <text>
         <r>
           <rPr>
@@ -275,27 +290,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="AM5" authorId="0" shapeId="0" xr:uid="{43C3068B-D016-4C39-9258-F192A9511F9C}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>アクションの処理によって出力する情報を記述する</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="43">
   <si>
     <t>更新日</t>
     <rPh sb="0" eb="3">
@@ -397,10 +397,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>アクション名</t>
     <rPh sb="5" eb="6">
       <t>メイ</t>
@@ -485,22 +481,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>A0-001</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ログインボタン押下</t>
     <rPh sb="7" eb="9">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ログインID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>パスワード</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -626,6 +610,34 @@
     <rPh sb="6" eb="8">
       <t>ガメン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログインID
+パスワード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログインID
+パスワード
+会員情報テーブル</t>
+    <rPh sb="13" eb="15">
+      <t>カイイン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項番</t>
+    <rPh sb="0" eb="2">
+      <t>コウバン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ー</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -691,7 +703,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -902,42 +914,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1025,7 +1006,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1048,14 +1029,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2160,7 +2135,7 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M1" sqref="M1:P1"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.296875" defaultRowHeight="22.2" customHeight="1"/>
@@ -2184,7 +2159,7 @@
       <c r="K1" s="15"/>
       <c r="L1" s="15"/>
       <c r="M1" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N1" s="12"/>
       <c r="O1" s="12"/>
@@ -2286,7 +2261,7 @@
       <c r="K3" s="19"/>
       <c r="L3" s="19"/>
       <c r="M3" s="27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N3" s="27"/>
       <c r="O3" s="25"/>
@@ -2322,25 +2297,25 @@
     <row r="4" spans="1:43" ht="22.2" customHeight="1" thickTop="1"/>
     <row r="5" spans="1:43" ht="22.2" customHeight="1">
       <c r="A5" s="28" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="B5" s="29"/>
       <c r="C5" s="29"/>
       <c r="D5" s="30"/>
       <c r="E5" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F5" s="21"/>
       <c r="G5" s="21"/>
       <c r="H5" s="22"/>
       <c r="I5" s="20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J5" s="21"/>
       <c r="K5" s="21"/>
       <c r="L5" s="22"/>
       <c r="M5" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N5" s="21"/>
       <c r="O5" s="21"/>
@@ -2353,14 +2328,14 @@
       <c r="T5" s="21"/>
       <c r="U5" s="21"/>
       <c r="V5" s="21"/>
-      <c r="W5" s="22"/>
-      <c r="X5" s="20" t="s">
-        <v>20</v>
-      </c>
+      <c r="W5" s="21"/>
+      <c r="X5" s="21"/>
       <c r="Y5" s="21"/>
       <c r="Z5" s="21"/>
-      <c r="AA5" s="21"/>
-      <c r="AB5" s="21"/>
+      <c r="AA5" s="22"/>
+      <c r="AB5" s="20" t="s">
+        <v>18</v>
+      </c>
       <c r="AC5" s="21"/>
       <c r="AD5" s="21"/>
       <c r="AE5" s="21"/>
@@ -2371,11 +2346,11 @@
       <c r="AH5" s="21"/>
       <c r="AI5" s="21"/>
       <c r="AJ5" s="21"/>
-      <c r="AK5" s="21"/>
-      <c r="AL5" s="22"/>
-      <c r="AM5" s="20" t="s">
-        <v>24</v>
-      </c>
+      <c r="AK5" s="22"/>
+      <c r="AL5" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM5" s="21"/>
       <c r="AN5" s="21"/>
       <c r="AO5" s="21"/>
       <c r="AP5" s="21"/>
@@ -2400,20 +2375,20 @@
       <c r="P6" s="8"/>
       <c r="Q6" s="8"/>
       <c r="R6" s="8"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="10"/>
-      <c r="U6" s="10"/>
-      <c r="V6" s="10"/>
-      <c r="W6" s="11"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="8"/>
       <c r="X6" s="8"/>
       <c r="Y6" s="8"/>
       <c r="Z6" s="8"/>
       <c r="AA6" s="8"/>
-      <c r="AB6" s="8"/>
-      <c r="AC6" s="8"/>
-      <c r="AD6" s="8"/>
-      <c r="AE6" s="8"/>
-      <c r="AF6" s="8"/>
+      <c r="AB6" s="9"/>
+      <c r="AC6" s="10"/>
+      <c r="AD6" s="10"/>
+      <c r="AE6" s="10"/>
+      <c r="AF6" s="11"/>
       <c r="AG6" s="8"/>
       <c r="AH6" s="8"/>
       <c r="AI6" s="8"/>
@@ -2445,20 +2420,20 @@
       <c r="P7" s="8"/>
       <c r="Q7" s="8"/>
       <c r="R7" s="8"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="10"/>
-      <c r="U7" s="10"/>
-      <c r="V7" s="10"/>
-      <c r="W7" s="11"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="8"/>
       <c r="X7" s="8"/>
       <c r="Y7" s="8"/>
       <c r="Z7" s="8"/>
       <c r="AA7" s="8"/>
-      <c r="AB7" s="8"/>
-      <c r="AC7" s="8"/>
-      <c r="AD7" s="8"/>
-      <c r="AE7" s="8"/>
-      <c r="AF7" s="8"/>
+      <c r="AB7" s="9"/>
+      <c r="AC7" s="10"/>
+      <c r="AD7" s="10"/>
+      <c r="AE7" s="10"/>
+      <c r="AF7" s="11"/>
       <c r="AG7" s="8"/>
       <c r="AH7" s="8"/>
       <c r="AI7" s="8"/>
@@ -2490,20 +2465,20 @@
       <c r="P8" s="8"/>
       <c r="Q8" s="8"/>
       <c r="R8" s="8"/>
-      <c r="S8" s="9"/>
-      <c r="T8" s="10"/>
-      <c r="U8" s="10"/>
-      <c r="V8" s="10"/>
-      <c r="W8" s="11"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="8"/>
+      <c r="W8" s="8"/>
       <c r="X8" s="8"/>
       <c r="Y8" s="8"/>
       <c r="Z8" s="8"/>
       <c r="AA8" s="8"/>
-      <c r="AB8" s="8"/>
-      <c r="AC8" s="8"/>
-      <c r="AD8" s="8"/>
-      <c r="AE8" s="8"/>
-      <c r="AF8" s="8"/>
+      <c r="AB8" s="9"/>
+      <c r="AC8" s="10"/>
+      <c r="AD8" s="10"/>
+      <c r="AE8" s="10"/>
+      <c r="AF8" s="11"/>
       <c r="AG8" s="8"/>
       <c r="AH8" s="8"/>
       <c r="AI8" s="8"/>
@@ -2535,20 +2510,20 @@
       <c r="P9" s="8"/>
       <c r="Q9" s="8"/>
       <c r="R9" s="8"/>
-      <c r="S9" s="9"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="10"/>
-      <c r="V9" s="10"/>
-      <c r="W9" s="11"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="8"/>
       <c r="X9" s="8"/>
       <c r="Y9" s="8"/>
       <c r="Z9" s="8"/>
       <c r="AA9" s="8"/>
-      <c r="AB9" s="8"/>
-      <c r="AC9" s="8"/>
-      <c r="AD9" s="8"/>
-      <c r="AE9" s="8"/>
-      <c r="AF9" s="8"/>
+      <c r="AB9" s="9"/>
+      <c r="AC9" s="10"/>
+      <c r="AD9" s="10"/>
+      <c r="AE9" s="10"/>
+      <c r="AF9" s="11"/>
       <c r="AG9" s="8"/>
       <c r="AH9" s="8"/>
       <c r="AI9" s="8"/>
@@ -2580,20 +2555,20 @@
       <c r="P10" s="8"/>
       <c r="Q10" s="8"/>
       <c r="R10" s="8"/>
-      <c r="S10" s="9"/>
-      <c r="T10" s="10"/>
-      <c r="U10" s="10"/>
-      <c r="V10" s="10"/>
-      <c r="W10" s="11"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="8"/>
       <c r="X10" s="8"/>
       <c r="Y10" s="8"/>
       <c r="Z10" s="8"/>
       <c r="AA10" s="8"/>
-      <c r="AB10" s="8"/>
-      <c r="AC10" s="8"/>
-      <c r="AD10" s="8"/>
-      <c r="AE10" s="8"/>
-      <c r="AF10" s="8"/>
+      <c r="AB10" s="9"/>
+      <c r="AC10" s="10"/>
+      <c r="AD10" s="10"/>
+      <c r="AE10" s="10"/>
+      <c r="AF10" s="11"/>
       <c r="AG10" s="8"/>
       <c r="AH10" s="8"/>
       <c r="AI10" s="8"/>
@@ -2625,20 +2600,20 @@
       <c r="P11" s="8"/>
       <c r="Q11" s="8"/>
       <c r="R11" s="8"/>
-      <c r="S11" s="9"/>
-      <c r="T11" s="10"/>
-      <c r="U11" s="10"/>
-      <c r="V11" s="10"/>
-      <c r="W11" s="11"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="8"/>
       <c r="X11" s="8"/>
       <c r="Y11" s="8"/>
       <c r="Z11" s="8"/>
       <c r="AA11" s="8"/>
-      <c r="AB11" s="8"/>
-      <c r="AC11" s="8"/>
-      <c r="AD11" s="8"/>
-      <c r="AE11" s="8"/>
-      <c r="AF11" s="8"/>
+      <c r="AB11" s="9"/>
+      <c r="AC11" s="10"/>
+      <c r="AD11" s="10"/>
+      <c r="AE11" s="10"/>
+      <c r="AF11" s="11"/>
       <c r="AG11" s="8"/>
       <c r="AH11" s="8"/>
       <c r="AI11" s="8"/>
@@ -2670,20 +2645,20 @@
       <c r="P12" s="8"/>
       <c r="Q12" s="8"/>
       <c r="R12" s="8"/>
-      <c r="S12" s="9"/>
-      <c r="T12" s="10"/>
-      <c r="U12" s="10"/>
-      <c r="V12" s="10"/>
-      <c r="W12" s="11"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="8"/>
       <c r="X12" s="8"/>
       <c r="Y12" s="8"/>
       <c r="Z12" s="8"/>
       <c r="AA12" s="8"/>
-      <c r="AB12" s="8"/>
-      <c r="AC12" s="8"/>
-      <c r="AD12" s="8"/>
-      <c r="AE12" s="8"/>
-      <c r="AF12" s="8"/>
+      <c r="AB12" s="9"/>
+      <c r="AC12" s="10"/>
+      <c r="AD12" s="10"/>
+      <c r="AE12" s="10"/>
+      <c r="AF12" s="11"/>
       <c r="AG12" s="8"/>
       <c r="AH12" s="8"/>
       <c r="AI12" s="8"/>
@@ -2715,20 +2690,20 @@
       <c r="P13" s="8"/>
       <c r="Q13" s="8"/>
       <c r="R13" s="8"/>
-      <c r="S13" s="9"/>
-      <c r="T13" s="10"/>
-      <c r="U13" s="10"/>
-      <c r="V13" s="10"/>
-      <c r="W13" s="11"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="8"/>
       <c r="X13" s="8"/>
       <c r="Y13" s="8"/>
       <c r="Z13" s="8"/>
       <c r="AA13" s="8"/>
-      <c r="AB13" s="8"/>
-      <c r="AC13" s="8"/>
-      <c r="AD13" s="8"/>
-      <c r="AE13" s="8"/>
-      <c r="AF13" s="8"/>
+      <c r="AB13" s="9"/>
+      <c r="AC13" s="10"/>
+      <c r="AD13" s="10"/>
+      <c r="AE13" s="10"/>
+      <c r="AF13" s="11"/>
       <c r="AG13" s="8"/>
       <c r="AH13" s="8"/>
       <c r="AI13" s="8"/>
@@ -2760,20 +2735,20 @@
       <c r="P14" s="8"/>
       <c r="Q14" s="8"/>
       <c r="R14" s="8"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="10"/>
-      <c r="U14" s="10"/>
-      <c r="V14" s="10"/>
-      <c r="W14" s="11"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="8"/>
       <c r="X14" s="8"/>
       <c r="Y14" s="8"/>
       <c r="Z14" s="8"/>
       <c r="AA14" s="8"/>
-      <c r="AB14" s="8"/>
-      <c r="AC14" s="8"/>
-      <c r="AD14" s="8"/>
-      <c r="AE14" s="8"/>
-      <c r="AF14" s="8"/>
+      <c r="AB14" s="9"/>
+      <c r="AC14" s="10"/>
+      <c r="AD14" s="10"/>
+      <c r="AE14" s="10"/>
+      <c r="AF14" s="11"/>
       <c r="AG14" s="8"/>
       <c r="AH14" s="8"/>
       <c r="AI14" s="8"/>
@@ -2805,20 +2780,20 @@
       <c r="P15" s="8"/>
       <c r="Q15" s="8"/>
       <c r="R15" s="8"/>
-      <c r="S15" s="9"/>
-      <c r="T15" s="10"/>
-      <c r="U15" s="10"/>
-      <c r="V15" s="10"/>
-      <c r="W15" s="11"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="8"/>
       <c r="X15" s="8"/>
       <c r="Y15" s="8"/>
       <c r="Z15" s="8"/>
       <c r="AA15" s="8"/>
-      <c r="AB15" s="8"/>
-      <c r="AC15" s="8"/>
-      <c r="AD15" s="8"/>
-      <c r="AE15" s="8"/>
-      <c r="AF15" s="8"/>
+      <c r="AB15" s="9"/>
+      <c r="AC15" s="10"/>
+      <c r="AD15" s="10"/>
+      <c r="AE15" s="10"/>
+      <c r="AF15" s="11"/>
       <c r="AG15" s="8"/>
       <c r="AH15" s="8"/>
       <c r="AI15" s="8"/>
@@ -2850,20 +2825,20 @@
       <c r="P16" s="8"/>
       <c r="Q16" s="8"/>
       <c r="R16" s="8"/>
-      <c r="S16" s="9"/>
-      <c r="T16" s="10"/>
-      <c r="U16" s="10"/>
-      <c r="V16" s="10"/>
-      <c r="W16" s="11"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="8"/>
       <c r="X16" s="8"/>
       <c r="Y16" s="8"/>
       <c r="Z16" s="8"/>
       <c r="AA16" s="8"/>
-      <c r="AB16" s="8"/>
-      <c r="AC16" s="8"/>
-      <c r="AD16" s="8"/>
-      <c r="AE16" s="8"/>
-      <c r="AF16" s="8"/>
+      <c r="AB16" s="9"/>
+      <c r="AC16" s="10"/>
+      <c r="AD16" s="10"/>
+      <c r="AE16" s="10"/>
+      <c r="AF16" s="11"/>
       <c r="AG16" s="8"/>
       <c r="AH16" s="8"/>
       <c r="AI16" s="8"/>
@@ -2895,20 +2870,20 @@
       <c r="P17" s="8"/>
       <c r="Q17" s="8"/>
       <c r="R17" s="8"/>
-      <c r="S17" s="9"/>
-      <c r="T17" s="10"/>
-      <c r="U17" s="10"/>
-      <c r="V17" s="10"/>
-      <c r="W17" s="11"/>
+      <c r="S17" s="8"/>
+      <c r="T17" s="8"/>
+      <c r="U17" s="8"/>
+      <c r="V17" s="8"/>
+      <c r="W17" s="8"/>
       <c r="X17" s="8"/>
       <c r="Y17" s="8"/>
       <c r="Z17" s="8"/>
       <c r="AA17" s="8"/>
-      <c r="AB17" s="8"/>
-      <c r="AC17" s="8"/>
-      <c r="AD17" s="8"/>
-      <c r="AE17" s="8"/>
-      <c r="AF17" s="8"/>
+      <c r="AB17" s="9"/>
+      <c r="AC17" s="10"/>
+      <c r="AD17" s="10"/>
+      <c r="AE17" s="10"/>
+      <c r="AF17" s="11"/>
       <c r="AG17" s="8"/>
       <c r="AH17" s="8"/>
       <c r="AI17" s="8"/>
@@ -2940,20 +2915,20 @@
       <c r="P18" s="8"/>
       <c r="Q18" s="8"/>
       <c r="R18" s="8"/>
-      <c r="S18" s="9"/>
-      <c r="T18" s="10"/>
-      <c r="U18" s="10"/>
-      <c r="V18" s="10"/>
-      <c r="W18" s="11"/>
+      <c r="S18" s="8"/>
+      <c r="T18" s="8"/>
+      <c r="U18" s="8"/>
+      <c r="V18" s="8"/>
+      <c r="W18" s="8"/>
       <c r="X18" s="8"/>
       <c r="Y18" s="8"/>
       <c r="Z18" s="8"/>
       <c r="AA18" s="8"/>
-      <c r="AB18" s="8"/>
-      <c r="AC18" s="8"/>
-      <c r="AD18" s="8"/>
-      <c r="AE18" s="8"/>
-      <c r="AF18" s="8"/>
+      <c r="AB18" s="9"/>
+      <c r="AC18" s="10"/>
+      <c r="AD18" s="10"/>
+      <c r="AE18" s="10"/>
+      <c r="AF18" s="11"/>
       <c r="AG18" s="8"/>
       <c r="AH18" s="8"/>
       <c r="AI18" s="8"/>
@@ -2985,20 +2960,20 @@
       <c r="P19" s="8"/>
       <c r="Q19" s="8"/>
       <c r="R19" s="8"/>
-      <c r="S19" s="9"/>
-      <c r="T19" s="10"/>
-      <c r="U19" s="10"/>
-      <c r="V19" s="10"/>
-      <c r="W19" s="11"/>
+      <c r="S19" s="8"/>
+      <c r="T19" s="8"/>
+      <c r="U19" s="8"/>
+      <c r="V19" s="8"/>
+      <c r="W19" s="8"/>
       <c r="X19" s="8"/>
       <c r="Y19" s="8"/>
       <c r="Z19" s="8"/>
       <c r="AA19" s="8"/>
-      <c r="AB19" s="8"/>
-      <c r="AC19" s="8"/>
-      <c r="AD19" s="8"/>
-      <c r="AE19" s="8"/>
-      <c r="AF19" s="8"/>
+      <c r="AB19" s="9"/>
+      <c r="AC19" s="10"/>
+      <c r="AD19" s="10"/>
+      <c r="AE19" s="10"/>
+      <c r="AF19" s="11"/>
       <c r="AG19" s="8"/>
       <c r="AH19" s="8"/>
       <c r="AI19" s="8"/>
@@ -3030,20 +3005,20 @@
       <c r="P20" s="8"/>
       <c r="Q20" s="8"/>
       <c r="R20" s="8"/>
-      <c r="S20" s="9"/>
-      <c r="T20" s="10"/>
-      <c r="U20" s="10"/>
-      <c r="V20" s="10"/>
-      <c r="W20" s="11"/>
+      <c r="S20" s="8"/>
+      <c r="T20" s="8"/>
+      <c r="U20" s="8"/>
+      <c r="V20" s="8"/>
+      <c r="W20" s="8"/>
       <c r="X20" s="8"/>
       <c r="Y20" s="8"/>
       <c r="Z20" s="8"/>
       <c r="AA20" s="8"/>
-      <c r="AB20" s="8"/>
-      <c r="AC20" s="8"/>
-      <c r="AD20" s="8"/>
-      <c r="AE20" s="8"/>
-      <c r="AF20" s="8"/>
+      <c r="AB20" s="9"/>
+      <c r="AC20" s="10"/>
+      <c r="AD20" s="10"/>
+      <c r="AE20" s="10"/>
+      <c r="AF20" s="11"/>
       <c r="AG20" s="8"/>
       <c r="AH20" s="8"/>
       <c r="AI20" s="8"/>
@@ -3075,20 +3050,20 @@
       <c r="P21" s="8"/>
       <c r="Q21" s="8"/>
       <c r="R21" s="8"/>
-      <c r="S21" s="9"/>
-      <c r="T21" s="10"/>
-      <c r="U21" s="10"/>
-      <c r="V21" s="10"/>
-      <c r="W21" s="11"/>
+      <c r="S21" s="8"/>
+      <c r="T21" s="8"/>
+      <c r="U21" s="8"/>
+      <c r="V21" s="8"/>
+      <c r="W21" s="8"/>
       <c r="X21" s="8"/>
       <c r="Y21" s="8"/>
       <c r="Z21" s="8"/>
       <c r="AA21" s="8"/>
-      <c r="AB21" s="8"/>
-      <c r="AC21" s="8"/>
-      <c r="AD21" s="8"/>
-      <c r="AE21" s="8"/>
-      <c r="AF21" s="8"/>
+      <c r="AB21" s="9"/>
+      <c r="AC21" s="10"/>
+      <c r="AD21" s="10"/>
+      <c r="AE21" s="10"/>
+      <c r="AF21" s="11"/>
       <c r="AG21" s="8"/>
       <c r="AH21" s="8"/>
       <c r="AI21" s="8"/>
@@ -3120,20 +3095,20 @@
       <c r="P22" s="8"/>
       <c r="Q22" s="8"/>
       <c r="R22" s="8"/>
-      <c r="S22" s="9"/>
-      <c r="T22" s="10"/>
-      <c r="U22" s="10"/>
-      <c r="V22" s="10"/>
-      <c r="W22" s="11"/>
+      <c r="S22" s="8"/>
+      <c r="T22" s="8"/>
+      <c r="U22" s="8"/>
+      <c r="V22" s="8"/>
+      <c r="W22" s="8"/>
       <c r="X22" s="8"/>
       <c r="Y22" s="8"/>
       <c r="Z22" s="8"/>
       <c r="AA22" s="8"/>
-      <c r="AB22" s="8"/>
-      <c r="AC22" s="8"/>
-      <c r="AD22" s="8"/>
-      <c r="AE22" s="8"/>
-      <c r="AF22" s="8"/>
+      <c r="AB22" s="9"/>
+      <c r="AC22" s="10"/>
+      <c r="AD22" s="10"/>
+      <c r="AE22" s="10"/>
+      <c r="AF22" s="11"/>
       <c r="AG22" s="8"/>
       <c r="AH22" s="8"/>
       <c r="AI22" s="8"/>
@@ -3165,20 +3140,20 @@
       <c r="P23" s="8"/>
       <c r="Q23" s="8"/>
       <c r="R23" s="8"/>
-      <c r="S23" s="9"/>
-      <c r="T23" s="10"/>
-      <c r="U23" s="10"/>
-      <c r="V23" s="10"/>
-      <c r="W23" s="11"/>
+      <c r="S23" s="8"/>
+      <c r="T23" s="8"/>
+      <c r="U23" s="8"/>
+      <c r="V23" s="8"/>
+      <c r="W23" s="8"/>
       <c r="X23" s="8"/>
       <c r="Y23" s="8"/>
       <c r="Z23" s="8"/>
       <c r="AA23" s="8"/>
-      <c r="AB23" s="8"/>
-      <c r="AC23" s="8"/>
-      <c r="AD23" s="8"/>
-      <c r="AE23" s="8"/>
-      <c r="AF23" s="8"/>
+      <c r="AB23" s="9"/>
+      <c r="AC23" s="10"/>
+      <c r="AD23" s="10"/>
+      <c r="AE23" s="10"/>
+      <c r="AF23" s="11"/>
       <c r="AG23" s="8"/>
       <c r="AH23" s="8"/>
       <c r="AI23" s="8"/>
@@ -3210,20 +3185,20 @@
       <c r="P24" s="8"/>
       <c r="Q24" s="8"/>
       <c r="R24" s="8"/>
-      <c r="S24" s="9"/>
-      <c r="T24" s="10"/>
-      <c r="U24" s="10"/>
-      <c r="V24" s="10"/>
-      <c r="W24" s="11"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="8"/>
+      <c r="U24" s="8"/>
+      <c r="V24" s="8"/>
+      <c r="W24" s="8"/>
       <c r="X24" s="8"/>
       <c r="Y24" s="8"/>
       <c r="Z24" s="8"/>
       <c r="AA24" s="8"/>
-      <c r="AB24" s="8"/>
-      <c r="AC24" s="8"/>
-      <c r="AD24" s="8"/>
-      <c r="AE24" s="8"/>
-      <c r="AF24" s="8"/>
+      <c r="AB24" s="9"/>
+      <c r="AC24" s="10"/>
+      <c r="AD24" s="10"/>
+      <c r="AE24" s="10"/>
+      <c r="AF24" s="11"/>
       <c r="AG24" s="8"/>
       <c r="AH24" s="8"/>
       <c r="AI24" s="8"/>
@@ -3255,20 +3230,20 @@
       <c r="P25" s="8"/>
       <c r="Q25" s="8"/>
       <c r="R25" s="8"/>
-      <c r="S25" s="9"/>
-      <c r="T25" s="10"/>
-      <c r="U25" s="10"/>
-      <c r="V25" s="10"/>
-      <c r="W25" s="11"/>
+      <c r="S25" s="8"/>
+      <c r="T25" s="8"/>
+      <c r="U25" s="8"/>
+      <c r="V25" s="8"/>
+      <c r="W25" s="8"/>
       <c r="X25" s="8"/>
       <c r="Y25" s="8"/>
       <c r="Z25" s="8"/>
       <c r="AA25" s="8"/>
-      <c r="AB25" s="8"/>
-      <c r="AC25" s="8"/>
-      <c r="AD25" s="8"/>
-      <c r="AE25" s="8"/>
-      <c r="AF25" s="8"/>
+      <c r="AB25" s="9"/>
+      <c r="AC25" s="10"/>
+      <c r="AD25" s="10"/>
+      <c r="AE25" s="10"/>
+      <c r="AF25" s="11"/>
       <c r="AG25" s="8"/>
       <c r="AH25" s="8"/>
       <c r="AI25" s="8"/>
@@ -3283,10 +3258,10 @@
     </row>
   </sheetData>
   <mergeCells count="123">
-    <mergeCell ref="S6:W6"/>
-    <mergeCell ref="X6:AF6"/>
-    <mergeCell ref="AG6:AL6"/>
-    <mergeCell ref="AM6:AQ6"/>
+    <mergeCell ref="AB6:AF6"/>
+    <mergeCell ref="S6:AA6"/>
+    <mergeCell ref="AL6:AQ6"/>
+    <mergeCell ref="AG6:AK6"/>
     <mergeCell ref="I5:L5"/>
     <mergeCell ref="A5:D5"/>
     <mergeCell ref="E5:H5"/>
@@ -3295,21 +3270,23 @@
     <mergeCell ref="I6:L9"/>
     <mergeCell ref="E6:H9"/>
     <mergeCell ref="A6:D9"/>
-    <mergeCell ref="AM7:AQ7"/>
-    <mergeCell ref="S7:W7"/>
-    <mergeCell ref="X7:AF7"/>
-    <mergeCell ref="AG7:AL7"/>
-    <mergeCell ref="S8:W8"/>
-    <mergeCell ref="X8:AF8"/>
-    <mergeCell ref="AG8:AL8"/>
-    <mergeCell ref="AM8:AQ8"/>
-    <mergeCell ref="S9:W9"/>
-    <mergeCell ref="X9:AF9"/>
+    <mergeCell ref="AG7:AK7"/>
+    <mergeCell ref="AB7:AF7"/>
+    <mergeCell ref="S7:AA7"/>
+    <mergeCell ref="AL7:AQ7"/>
+    <mergeCell ref="AB8:AF8"/>
+    <mergeCell ref="S8:AA8"/>
+    <mergeCell ref="AL8:AQ8"/>
+    <mergeCell ref="AG8:AK8"/>
+    <mergeCell ref="AB9:AF9"/>
+    <mergeCell ref="S9:AA9"/>
+    <mergeCell ref="AL9:AQ9"/>
+    <mergeCell ref="AG9:AK9"/>
     <mergeCell ref="Q1:Z1"/>
     <mergeCell ref="Q2:Z2"/>
     <mergeCell ref="A1:L3"/>
-    <mergeCell ref="S5:W5"/>
-    <mergeCell ref="X5:AF5"/>
+    <mergeCell ref="AB5:AF5"/>
+    <mergeCell ref="S5:AA5"/>
     <mergeCell ref="AK1:AQ1"/>
     <mergeCell ref="AK2:AQ2"/>
     <mergeCell ref="O3:AQ3"/>
@@ -3322,90 +3299,88 @@
     <mergeCell ref="M1:P1"/>
     <mergeCell ref="M2:P2"/>
     <mergeCell ref="M3:N3"/>
-    <mergeCell ref="AG5:AL5"/>
-    <mergeCell ref="AM5:AQ5"/>
-    <mergeCell ref="AG9:AL9"/>
-    <mergeCell ref="AM9:AQ9"/>
+    <mergeCell ref="AL5:AQ5"/>
+    <mergeCell ref="AG5:AK5"/>
     <mergeCell ref="A10:D13"/>
     <mergeCell ref="E10:H13"/>
     <mergeCell ref="I10:L13"/>
     <mergeCell ref="M10:R13"/>
-    <mergeCell ref="S10:W10"/>
-    <mergeCell ref="X10:AF10"/>
-    <mergeCell ref="AG10:AL10"/>
-    <mergeCell ref="S11:W11"/>
-    <mergeCell ref="X11:AF11"/>
-    <mergeCell ref="AG11:AL11"/>
-    <mergeCell ref="S12:W12"/>
-    <mergeCell ref="X12:AF12"/>
-    <mergeCell ref="AG12:AL12"/>
-    <mergeCell ref="S13:W13"/>
-    <mergeCell ref="AM10:AQ10"/>
-    <mergeCell ref="AM11:AQ11"/>
-    <mergeCell ref="AM12:AQ12"/>
-    <mergeCell ref="X13:AF13"/>
-    <mergeCell ref="AG13:AL13"/>
-    <mergeCell ref="AM13:AQ13"/>
+    <mergeCell ref="AB10:AF10"/>
+    <mergeCell ref="S10:AA10"/>
+    <mergeCell ref="AL10:AQ10"/>
+    <mergeCell ref="AB11:AF11"/>
+    <mergeCell ref="S11:AA11"/>
+    <mergeCell ref="AL11:AQ11"/>
+    <mergeCell ref="AB12:AF12"/>
+    <mergeCell ref="S12:AA12"/>
+    <mergeCell ref="AL12:AQ12"/>
+    <mergeCell ref="AB13:AF13"/>
+    <mergeCell ref="AG10:AK10"/>
+    <mergeCell ref="AG11:AK11"/>
+    <mergeCell ref="AG12:AK12"/>
+    <mergeCell ref="S13:AA13"/>
+    <mergeCell ref="AL13:AQ13"/>
+    <mergeCell ref="AG13:AK13"/>
     <mergeCell ref="A14:D17"/>
     <mergeCell ref="E14:H17"/>
     <mergeCell ref="I14:L17"/>
     <mergeCell ref="M14:R17"/>
-    <mergeCell ref="S14:W14"/>
-    <mergeCell ref="X14:AF14"/>
-    <mergeCell ref="AG14:AL14"/>
-    <mergeCell ref="S15:W15"/>
-    <mergeCell ref="X15:AF15"/>
-    <mergeCell ref="AG15:AL15"/>
-    <mergeCell ref="S16:W16"/>
-    <mergeCell ref="X16:AF16"/>
-    <mergeCell ref="AG16:AL16"/>
-    <mergeCell ref="S17:W17"/>
-    <mergeCell ref="AM14:AQ14"/>
-    <mergeCell ref="AM15:AQ15"/>
-    <mergeCell ref="AM16:AQ16"/>
-    <mergeCell ref="X17:AF17"/>
-    <mergeCell ref="AG17:AL17"/>
-    <mergeCell ref="AM17:AQ17"/>
+    <mergeCell ref="AB14:AF14"/>
+    <mergeCell ref="S14:AA14"/>
+    <mergeCell ref="AL14:AQ14"/>
+    <mergeCell ref="AB15:AF15"/>
+    <mergeCell ref="S15:AA15"/>
+    <mergeCell ref="AL15:AQ15"/>
+    <mergeCell ref="AB16:AF16"/>
+    <mergeCell ref="S16:AA16"/>
+    <mergeCell ref="AL16:AQ16"/>
+    <mergeCell ref="AB17:AF17"/>
+    <mergeCell ref="AG14:AK14"/>
+    <mergeCell ref="AG15:AK15"/>
+    <mergeCell ref="AG16:AK16"/>
+    <mergeCell ref="S17:AA17"/>
+    <mergeCell ref="AL17:AQ17"/>
+    <mergeCell ref="AG17:AK17"/>
     <mergeCell ref="A18:D21"/>
     <mergeCell ref="E18:H21"/>
     <mergeCell ref="I18:L21"/>
     <mergeCell ref="M18:R21"/>
-    <mergeCell ref="S18:W18"/>
-    <mergeCell ref="X18:AF18"/>
-    <mergeCell ref="AG18:AL18"/>
-    <mergeCell ref="S19:W19"/>
-    <mergeCell ref="AM18:AQ18"/>
-    <mergeCell ref="X19:AF19"/>
-    <mergeCell ref="AG19:AL19"/>
-    <mergeCell ref="AM19:AQ19"/>
-    <mergeCell ref="S20:W20"/>
-    <mergeCell ref="X20:AF20"/>
-    <mergeCell ref="AG20:AL20"/>
-    <mergeCell ref="AM20:AQ20"/>
-    <mergeCell ref="S21:W21"/>
-    <mergeCell ref="X21:AF21"/>
-    <mergeCell ref="AG21:AL21"/>
-    <mergeCell ref="AM21:AQ21"/>
-    <mergeCell ref="AM22:AQ22"/>
-    <mergeCell ref="AM23:AQ23"/>
-    <mergeCell ref="AM24:AQ24"/>
-    <mergeCell ref="X25:AF25"/>
-    <mergeCell ref="AG25:AL25"/>
-    <mergeCell ref="AM25:AQ25"/>
+    <mergeCell ref="AB18:AF18"/>
+    <mergeCell ref="S18:AA18"/>
+    <mergeCell ref="AL18:AQ18"/>
+    <mergeCell ref="AB19:AF19"/>
+    <mergeCell ref="AG18:AK18"/>
+    <mergeCell ref="S19:AA19"/>
+    <mergeCell ref="AL19:AQ19"/>
+    <mergeCell ref="AG19:AK19"/>
+    <mergeCell ref="AB20:AF20"/>
+    <mergeCell ref="S20:AA20"/>
+    <mergeCell ref="AL20:AQ20"/>
+    <mergeCell ref="AG20:AK20"/>
+    <mergeCell ref="AB21:AF21"/>
+    <mergeCell ref="S21:AA21"/>
+    <mergeCell ref="AL21:AQ21"/>
+    <mergeCell ref="AG21:AK21"/>
+    <mergeCell ref="AG22:AK22"/>
+    <mergeCell ref="AG23:AK23"/>
+    <mergeCell ref="AG24:AK24"/>
+    <mergeCell ref="S25:AA25"/>
+    <mergeCell ref="AL25:AQ25"/>
+    <mergeCell ref="AG25:AK25"/>
     <mergeCell ref="A22:D25"/>
     <mergeCell ref="E22:H25"/>
     <mergeCell ref="I22:L25"/>
     <mergeCell ref="M22:R25"/>
-    <mergeCell ref="S22:W22"/>
-    <mergeCell ref="X22:AF22"/>
-    <mergeCell ref="AG22:AL22"/>
-    <mergeCell ref="S23:W23"/>
-    <mergeCell ref="X23:AF23"/>
-    <mergeCell ref="AG23:AL23"/>
-    <mergeCell ref="S24:W24"/>
-    <mergeCell ref="X24:AF24"/>
-    <mergeCell ref="AG24:AL24"/>
-    <mergeCell ref="S25:W25"/>
+    <mergeCell ref="AB22:AF22"/>
+    <mergeCell ref="S22:AA22"/>
+    <mergeCell ref="AL22:AQ22"/>
+    <mergeCell ref="AB23:AF23"/>
+    <mergeCell ref="S23:AA23"/>
+    <mergeCell ref="AL23:AQ23"/>
+    <mergeCell ref="AB24:AF24"/>
+    <mergeCell ref="S24:AA24"/>
+    <mergeCell ref="AL24:AQ24"/>
+    <mergeCell ref="AB25:AF25"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3420,11 +3395,11 @@
     <tabColor theme="0" tint="-0.499984740745262"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AQ26"/>
+  <dimension ref="A1:AQ25"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q2" sqref="Q2:Z2"/>
+      <selection pane="bottomLeft" sqref="A1:L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.296875" defaultRowHeight="22.2" customHeight="1"/>
@@ -3448,13 +3423,13 @@
       <c r="K1" s="15"/>
       <c r="L1" s="15"/>
       <c r="M1" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N1" s="12"/>
       <c r="O1" s="12"/>
       <c r="P1" s="12"/>
       <c r="Q1" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R1" s="12"/>
       <c r="S1" s="12"/>
@@ -3469,7 +3444,7 @@
         <v>5</v>
       </c>
       <c r="AB1" s="12"/>
-      <c r="AC1" s="44">
+      <c r="AC1" s="42">
         <v>44365</v>
       </c>
       <c r="AD1" s="12"/>
@@ -3482,7 +3457,7 @@
       </c>
       <c r="AJ1" s="12"/>
       <c r="AK1" s="12" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AL1" s="12"/>
       <c r="AM1" s="12"/>
@@ -3511,7 +3486,7 @@
       <c r="O2" s="13"/>
       <c r="P2" s="13"/>
       <c r="Q2" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R2" s="13"/>
       <c r="S2" s="13"/>
@@ -3526,7 +3501,7 @@
         <v>0</v>
       </c>
       <c r="AB2" s="13"/>
-      <c r="AC2" s="43">
+      <c r="AC2" s="41">
         <v>44365</v>
       </c>
       <c r="AD2" s="13"/>
@@ -3539,7 +3514,7 @@
       </c>
       <c r="AJ2" s="13"/>
       <c r="AK2" s="13" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AL2" s="13"/>
       <c r="AM2" s="13"/>
@@ -3562,11 +3537,11 @@
       <c r="K3" s="19"/>
       <c r="L3" s="19"/>
       <c r="M3" s="27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N3" s="27"/>
       <c r="O3" s="25" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="P3" s="25"/>
       <c r="Q3" s="25"/>
@@ -3600,25 +3575,25 @@
     <row r="4" spans="1:43" ht="22.2" customHeight="1" thickTop="1"/>
     <row r="5" spans="1:43" ht="22.2" customHeight="1">
       <c r="A5" s="28" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="B5" s="29"/>
       <c r="C5" s="29"/>
       <c r="D5" s="30"/>
       <c r="E5" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F5" s="21"/>
       <c r="G5" s="21"/>
       <c r="H5" s="22"/>
       <c r="I5" s="20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J5" s="21"/>
       <c r="K5" s="21"/>
       <c r="L5" s="22"/>
       <c r="M5" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N5" s="21"/>
       <c r="O5" s="21"/>
@@ -3631,14 +3606,14 @@
       <c r="T5" s="21"/>
       <c r="U5" s="21"/>
       <c r="V5" s="21"/>
-      <c r="W5" s="22"/>
-      <c r="X5" s="20" t="s">
-        <v>20</v>
-      </c>
+      <c r="W5" s="21"/>
+      <c r="X5" s="21"/>
       <c r="Y5" s="21"/>
       <c r="Z5" s="21"/>
-      <c r="AA5" s="21"/>
-      <c r="AB5" s="21"/>
+      <c r="AA5" s="22"/>
+      <c r="AB5" s="20" t="s">
+        <v>18</v>
+      </c>
       <c r="AC5" s="21"/>
       <c r="AD5" s="21"/>
       <c r="AE5" s="21"/>
@@ -3649,76 +3624,78 @@
       <c r="AH5" s="21"/>
       <c r="AI5" s="21"/>
       <c r="AJ5" s="21"/>
-      <c r="AK5" s="21"/>
-      <c r="AL5" s="22"/>
-      <c r="AM5" s="20" t="s">
-        <v>24</v>
-      </c>
+      <c r="AK5" s="22"/>
+      <c r="AL5" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM5" s="21"/>
       <c r="AN5" s="21"/>
       <c r="AO5" s="21"/>
       <c r="AP5" s="21"/>
       <c r="AQ5" s="22"/>
     </row>
-    <row r="6" spans="1:43" ht="22.2" customHeight="1">
-      <c r="A6" s="8" t="s">
-        <v>29</v>
+    <row r="6" spans="1:43" ht="45" customHeight="1">
+      <c r="A6" s="8">
+        <v>1</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
       <c r="I6" s="31" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J6" s="31"/>
       <c r="K6" s="31"/>
       <c r="L6" s="31"/>
       <c r="M6" s="31" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="N6" s="31"/>
       <c r="O6" s="31"/>
       <c r="P6" s="31"/>
       <c r="Q6" s="31"/>
       <c r="R6" s="31"/>
-      <c r="S6" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="T6" s="10"/>
-      <c r="U6" s="10"/>
-      <c r="V6" s="10"/>
-      <c r="W6" s="11"/>
-      <c r="X6" s="37" t="s">
-        <v>33</v>
-      </c>
+      <c r="S6" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="T6" s="38"/>
+      <c r="U6" s="38"/>
+      <c r="V6" s="38"/>
+      <c r="W6" s="38"/>
+      <c r="X6" s="38"/>
       <c r="Y6" s="38"/>
       <c r="Z6" s="38"/>
-      <c r="AA6" s="38"/>
-      <c r="AB6" s="38"/>
-      <c r="AC6" s="38"/>
-      <c r="AD6" s="38"/>
-      <c r="AE6" s="38"/>
-      <c r="AF6" s="39"/>
+      <c r="AA6" s="39"/>
+      <c r="AB6" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC6" s="10"/>
+      <c r="AD6" s="10"/>
+      <c r="AE6" s="10"/>
+      <c r="AF6" s="11"/>
       <c r="AG6" s="8" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="AH6" s="8"/>
       <c r="AI6" s="8"/>
       <c r="AJ6" s="8"/>
       <c r="AK6" s="8"/>
-      <c r="AL6" s="8"/>
+      <c r="AL6" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="AM6" s="8"/>
       <c r="AN6" s="8"/>
       <c r="AO6" s="8"/>
       <c r="AP6" s="8"/>
       <c r="AQ6" s="8"/>
     </row>
-    <row r="7" spans="1:43" ht="22.2" customHeight="1">
+    <row r="7" spans="1:43" ht="62.4" customHeight="1">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -3737,37 +3714,41 @@
       <c r="P7" s="31"/>
       <c r="Q7" s="31"/>
       <c r="R7" s="31"/>
-      <c r="S7" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="T7" s="10"/>
-      <c r="U7" s="10"/>
-      <c r="V7" s="10"/>
-      <c r="W7" s="11"/>
-      <c r="X7" s="40"/>
-      <c r="Y7" s="41"/>
-      <c r="Z7" s="41"/>
-      <c r="AA7" s="41"/>
-      <c r="AB7" s="41"/>
-      <c r="AC7" s="41"/>
-      <c r="AD7" s="41"/>
-      <c r="AE7" s="41"/>
-      <c r="AF7" s="42"/>
+      <c r="S7" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="T7" s="36"/>
+      <c r="U7" s="36"/>
+      <c r="V7" s="36"/>
+      <c r="W7" s="36"/>
+      <c r="X7" s="36"/>
+      <c r="Y7" s="36"/>
+      <c r="Z7" s="36"/>
+      <c r="AA7" s="36"/>
+      <c r="AB7" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC7" s="33"/>
+      <c r="AD7" s="33"/>
+      <c r="AE7" s="33"/>
+      <c r="AF7" s="34"/>
       <c r="AG7" s="8" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="AH7" s="8"/>
       <c r="AI7" s="8"/>
       <c r="AJ7" s="8"/>
       <c r="AK7" s="8"/>
-      <c r="AL7" s="8"/>
+      <c r="AL7" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="AM7" s="8"/>
       <c r="AN7" s="8"/>
       <c r="AO7" s="8"/>
       <c r="AP7" s="8"/>
       <c r="AQ7" s="8"/>
     </row>
-    <row r="8" spans="1:43" ht="62.4" customHeight="1">
+    <row r="8" spans="1:43" ht="45" customHeight="1">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -3786,32 +3767,34 @@
       <c r="P8" s="31"/>
       <c r="Q8" s="31"/>
       <c r="R8" s="31"/>
-      <c r="S8" s="32" t="s">
+      <c r="S8" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="T8" s="33"/>
-      <c r="U8" s="33"/>
-      <c r="V8" s="33"/>
-      <c r="W8" s="34"/>
-      <c r="X8" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y8" s="36"/>
-      <c r="Z8" s="36"/>
-      <c r="AA8" s="36"/>
-      <c r="AB8" s="36"/>
-      <c r="AC8" s="36"/>
-      <c r="AD8" s="36"/>
-      <c r="AE8" s="36"/>
-      <c r="AF8" s="36"/>
+      <c r="T8" s="31"/>
+      <c r="U8" s="31"/>
+      <c r="V8" s="31"/>
+      <c r="W8" s="31"/>
+      <c r="X8" s="31"/>
+      <c r="Y8" s="31"/>
+      <c r="Z8" s="31"/>
+      <c r="AA8" s="31"/>
+      <c r="AB8" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC8" s="10"/>
+      <c r="AD8" s="10"/>
+      <c r="AE8" s="10"/>
+      <c r="AF8" s="11"/>
       <c r="AG8" s="8" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="AH8" s="8"/>
       <c r="AI8" s="8"/>
       <c r="AJ8" s="8"/>
       <c r="AK8" s="8"/>
-      <c r="AL8" s="8"/>
+      <c r="AL8" s="8" t="s">
+        <v>38</v>
+      </c>
       <c r="AM8" s="8"/>
       <c r="AN8" s="8"/>
       <c r="AO8" s="8"/>
@@ -3837,41 +3820,41 @@
       <c r="P9" s="31"/>
       <c r="Q9" s="31"/>
       <c r="R9" s="31"/>
-      <c r="S9" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="T9" s="10"/>
-      <c r="U9" s="10"/>
-      <c r="V9" s="10"/>
-      <c r="W9" s="11"/>
-      <c r="X9" s="31" t="s">
-        <v>41</v>
-      </c>
+      <c r="S9" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="T9" s="31"/>
+      <c r="U9" s="31"/>
+      <c r="V9" s="31"/>
+      <c r="W9" s="31"/>
+      <c r="X9" s="31"/>
       <c r="Y9" s="31"/>
       <c r="Z9" s="31"/>
       <c r="AA9" s="31"/>
-      <c r="AB9" s="31"/>
-      <c r="AC9" s="31"/>
-      <c r="AD9" s="31"/>
-      <c r="AE9" s="31"/>
-      <c r="AF9" s="31"/>
+      <c r="AB9" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC9" s="10"/>
+      <c r="AD9" s="10"/>
+      <c r="AE9" s="10"/>
+      <c r="AF9" s="11"/>
       <c r="AG9" s="8" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="AH9" s="8"/>
       <c r="AI9" s="8"/>
       <c r="AJ9" s="8"/>
       <c r="AK9" s="8"/>
-      <c r="AL9" s="8"/>
-      <c r="AM9" s="8" t="s">
-        <v>37</v>
-      </c>
+      <c r="AL9" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AM9" s="8"/>
       <c r="AN9" s="8"/>
       <c r="AO9" s="8"/>
       <c r="AP9" s="8"/>
       <c r="AQ9" s="8"/>
     </row>
-    <row r="10" spans="1:43" ht="45" customHeight="1">
+    <row r="10" spans="1:43" ht="22.2" customHeight="1">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -3880,45 +3863,37 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="31"/>
-      <c r="O10" s="31"/>
-      <c r="P10" s="31"/>
-      <c r="Q10" s="31"/>
-      <c r="R10" s="31"/>
-      <c r="S10" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="T10" s="10"/>
-      <c r="U10" s="10"/>
-      <c r="V10" s="10"/>
-      <c r="W10" s="11"/>
-      <c r="X10" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y10" s="31"/>
-      <c r="Z10" s="31"/>
-      <c r="AA10" s="31"/>
-      <c r="AB10" s="31"/>
-      <c r="AC10" s="31"/>
-      <c r="AD10" s="31"/>
-      <c r="AE10" s="31"/>
-      <c r="AF10" s="31"/>
-      <c r="AG10" s="8" t="s">
-        <v>7</v>
-      </c>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="8"/>
+      <c r="X10" s="8"/>
+      <c r="Y10" s="8"/>
+      <c r="Z10" s="8"/>
+      <c r="AA10" s="8"/>
+      <c r="AB10" s="9"/>
+      <c r="AC10" s="10"/>
+      <c r="AD10" s="10"/>
+      <c r="AE10" s="10"/>
+      <c r="AF10" s="11"/>
+      <c r="AG10" s="8"/>
       <c r="AH10" s="8"/>
       <c r="AI10" s="8"/>
       <c r="AJ10" s="8"/>
       <c r="AK10" s="8"/>
       <c r="AL10" s="8"/>
-      <c r="AM10" s="8" t="s">
-        <v>35</v>
-      </c>
+      <c r="AM10" s="8"/>
       <c r="AN10" s="8"/>
       <c r="AO10" s="8"/>
       <c r="AP10" s="8"/>
@@ -3943,20 +3918,20 @@
       <c r="P11" s="8"/>
       <c r="Q11" s="8"/>
       <c r="R11" s="8"/>
-      <c r="S11" s="9"/>
-      <c r="T11" s="10"/>
-      <c r="U11" s="10"/>
-      <c r="V11" s="10"/>
-      <c r="W11" s="11"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="8"/>
       <c r="X11" s="8"/>
       <c r="Y11" s="8"/>
       <c r="Z11" s="8"/>
       <c r="AA11" s="8"/>
-      <c r="AB11" s="8"/>
-      <c r="AC11" s="8"/>
-      <c r="AD11" s="8"/>
-      <c r="AE11" s="8"/>
-      <c r="AF11" s="8"/>
+      <c r="AB11" s="9"/>
+      <c r="AC11" s="10"/>
+      <c r="AD11" s="10"/>
+      <c r="AE11" s="10"/>
+      <c r="AF11" s="11"/>
       <c r="AG11" s="8"/>
       <c r="AH11" s="8"/>
       <c r="AI11" s="8"/>
@@ -3988,20 +3963,20 @@
       <c r="P12" s="8"/>
       <c r="Q12" s="8"/>
       <c r="R12" s="8"/>
-      <c r="S12" s="9"/>
-      <c r="T12" s="10"/>
-      <c r="U12" s="10"/>
-      <c r="V12" s="10"/>
-      <c r="W12" s="11"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="8"/>
       <c r="X12" s="8"/>
       <c r="Y12" s="8"/>
       <c r="Z12" s="8"/>
       <c r="AA12" s="8"/>
-      <c r="AB12" s="8"/>
-      <c r="AC12" s="8"/>
-      <c r="AD12" s="8"/>
-      <c r="AE12" s="8"/>
-      <c r="AF12" s="8"/>
+      <c r="AB12" s="9"/>
+      <c r="AC12" s="10"/>
+      <c r="AD12" s="10"/>
+      <c r="AE12" s="10"/>
+      <c r="AF12" s="11"/>
       <c r="AG12" s="8"/>
       <c r="AH12" s="8"/>
       <c r="AI12" s="8"/>
@@ -4033,20 +4008,20 @@
       <c r="P13" s="8"/>
       <c r="Q13" s="8"/>
       <c r="R13" s="8"/>
-      <c r="S13" s="9"/>
-      <c r="T13" s="10"/>
-      <c r="U13" s="10"/>
-      <c r="V13" s="10"/>
-      <c r="W13" s="11"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="8"/>
       <c r="X13" s="8"/>
       <c r="Y13" s="8"/>
       <c r="Z13" s="8"/>
       <c r="AA13" s="8"/>
-      <c r="AB13" s="8"/>
-      <c r="AC13" s="8"/>
-      <c r="AD13" s="8"/>
-      <c r="AE13" s="8"/>
-      <c r="AF13" s="8"/>
+      <c r="AB13" s="9"/>
+      <c r="AC13" s="10"/>
+      <c r="AD13" s="10"/>
+      <c r="AE13" s="10"/>
+      <c r="AF13" s="11"/>
       <c r="AG13" s="8"/>
       <c r="AH13" s="8"/>
       <c r="AI13" s="8"/>
@@ -4078,20 +4053,20 @@
       <c r="P14" s="8"/>
       <c r="Q14" s="8"/>
       <c r="R14" s="8"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="10"/>
-      <c r="U14" s="10"/>
-      <c r="V14" s="10"/>
-      <c r="W14" s="11"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="8"/>
       <c r="X14" s="8"/>
       <c r="Y14" s="8"/>
       <c r="Z14" s="8"/>
       <c r="AA14" s="8"/>
-      <c r="AB14" s="8"/>
-      <c r="AC14" s="8"/>
-      <c r="AD14" s="8"/>
-      <c r="AE14" s="8"/>
-      <c r="AF14" s="8"/>
+      <c r="AB14" s="9"/>
+      <c r="AC14" s="10"/>
+      <c r="AD14" s="10"/>
+      <c r="AE14" s="10"/>
+      <c r="AF14" s="11"/>
       <c r="AG14" s="8"/>
       <c r="AH14" s="8"/>
       <c r="AI14" s="8"/>
@@ -4123,20 +4098,20 @@
       <c r="P15" s="8"/>
       <c r="Q15" s="8"/>
       <c r="R15" s="8"/>
-      <c r="S15" s="9"/>
-      <c r="T15" s="10"/>
-      <c r="U15" s="10"/>
-      <c r="V15" s="10"/>
-      <c r="W15" s="11"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="8"/>
       <c r="X15" s="8"/>
       <c r="Y15" s="8"/>
       <c r="Z15" s="8"/>
       <c r="AA15" s="8"/>
-      <c r="AB15" s="8"/>
-      <c r="AC15" s="8"/>
-      <c r="AD15" s="8"/>
-      <c r="AE15" s="8"/>
-      <c r="AF15" s="8"/>
+      <c r="AB15" s="9"/>
+      <c r="AC15" s="10"/>
+      <c r="AD15" s="10"/>
+      <c r="AE15" s="10"/>
+      <c r="AF15" s="11"/>
       <c r="AG15" s="8"/>
       <c r="AH15" s="8"/>
       <c r="AI15" s="8"/>
@@ -4168,20 +4143,20 @@
       <c r="P16" s="8"/>
       <c r="Q16" s="8"/>
       <c r="R16" s="8"/>
-      <c r="S16" s="9"/>
-      <c r="T16" s="10"/>
-      <c r="U16" s="10"/>
-      <c r="V16" s="10"/>
-      <c r="W16" s="11"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="8"/>
       <c r="X16" s="8"/>
       <c r="Y16" s="8"/>
       <c r="Z16" s="8"/>
       <c r="AA16" s="8"/>
-      <c r="AB16" s="8"/>
-      <c r="AC16" s="8"/>
-      <c r="AD16" s="8"/>
-      <c r="AE16" s="8"/>
-      <c r="AF16" s="8"/>
+      <c r="AB16" s="9"/>
+      <c r="AC16" s="10"/>
+      <c r="AD16" s="10"/>
+      <c r="AE16" s="10"/>
+      <c r="AF16" s="11"/>
       <c r="AG16" s="8"/>
       <c r="AH16" s="8"/>
       <c r="AI16" s="8"/>
@@ -4213,20 +4188,20 @@
       <c r="P17" s="8"/>
       <c r="Q17" s="8"/>
       <c r="R17" s="8"/>
-      <c r="S17" s="9"/>
-      <c r="T17" s="10"/>
-      <c r="U17" s="10"/>
-      <c r="V17" s="10"/>
-      <c r="W17" s="11"/>
+      <c r="S17" s="8"/>
+      <c r="T17" s="8"/>
+      <c r="U17" s="8"/>
+      <c r="V17" s="8"/>
+      <c r="W17" s="8"/>
       <c r="X17" s="8"/>
       <c r="Y17" s="8"/>
       <c r="Z17" s="8"/>
       <c r="AA17" s="8"/>
-      <c r="AB17" s="8"/>
-      <c r="AC17" s="8"/>
-      <c r="AD17" s="8"/>
-      <c r="AE17" s="8"/>
-      <c r="AF17" s="8"/>
+      <c r="AB17" s="9"/>
+      <c r="AC17" s="10"/>
+      <c r="AD17" s="10"/>
+      <c r="AE17" s="10"/>
+      <c r="AF17" s="11"/>
       <c r="AG17" s="8"/>
       <c r="AH17" s="8"/>
       <c r="AI17" s="8"/>
@@ -4258,20 +4233,20 @@
       <c r="P18" s="8"/>
       <c r="Q18" s="8"/>
       <c r="R18" s="8"/>
-      <c r="S18" s="9"/>
-      <c r="T18" s="10"/>
-      <c r="U18" s="10"/>
-      <c r="V18" s="10"/>
-      <c r="W18" s="11"/>
+      <c r="S18" s="8"/>
+      <c r="T18" s="8"/>
+      <c r="U18" s="8"/>
+      <c r="V18" s="8"/>
+      <c r="W18" s="8"/>
       <c r="X18" s="8"/>
       <c r="Y18" s="8"/>
       <c r="Z18" s="8"/>
       <c r="AA18" s="8"/>
-      <c r="AB18" s="8"/>
-      <c r="AC18" s="8"/>
-      <c r="AD18" s="8"/>
-      <c r="AE18" s="8"/>
-      <c r="AF18" s="8"/>
+      <c r="AB18" s="9"/>
+      <c r="AC18" s="10"/>
+      <c r="AD18" s="10"/>
+      <c r="AE18" s="10"/>
+      <c r="AF18" s="11"/>
       <c r="AG18" s="8"/>
       <c r="AH18" s="8"/>
       <c r="AI18" s="8"/>
@@ -4303,20 +4278,20 @@
       <c r="P19" s="8"/>
       <c r="Q19" s="8"/>
       <c r="R19" s="8"/>
-      <c r="S19" s="9"/>
-      <c r="T19" s="10"/>
-      <c r="U19" s="10"/>
-      <c r="V19" s="10"/>
-      <c r="W19" s="11"/>
+      <c r="S19" s="8"/>
+      <c r="T19" s="8"/>
+      <c r="U19" s="8"/>
+      <c r="V19" s="8"/>
+      <c r="W19" s="8"/>
       <c r="X19" s="8"/>
       <c r="Y19" s="8"/>
       <c r="Z19" s="8"/>
       <c r="AA19" s="8"/>
-      <c r="AB19" s="8"/>
-      <c r="AC19" s="8"/>
-      <c r="AD19" s="8"/>
-      <c r="AE19" s="8"/>
-      <c r="AF19" s="8"/>
+      <c r="AB19" s="9"/>
+      <c r="AC19" s="10"/>
+      <c r="AD19" s="10"/>
+      <c r="AE19" s="10"/>
+      <c r="AF19" s="11"/>
       <c r="AG19" s="8"/>
       <c r="AH19" s="8"/>
       <c r="AI19" s="8"/>
@@ -4348,20 +4323,20 @@
       <c r="P20" s="8"/>
       <c r="Q20" s="8"/>
       <c r="R20" s="8"/>
-      <c r="S20" s="9"/>
-      <c r="T20" s="10"/>
-      <c r="U20" s="10"/>
-      <c r="V20" s="10"/>
-      <c r="W20" s="11"/>
+      <c r="S20" s="8"/>
+      <c r="T20" s="8"/>
+      <c r="U20" s="8"/>
+      <c r="V20" s="8"/>
+      <c r="W20" s="8"/>
       <c r="X20" s="8"/>
       <c r="Y20" s="8"/>
       <c r="Z20" s="8"/>
       <c r="AA20" s="8"/>
-      <c r="AB20" s="8"/>
-      <c r="AC20" s="8"/>
-      <c r="AD20" s="8"/>
-      <c r="AE20" s="8"/>
-      <c r="AF20" s="8"/>
+      <c r="AB20" s="9"/>
+      <c r="AC20" s="10"/>
+      <c r="AD20" s="10"/>
+      <c r="AE20" s="10"/>
+      <c r="AF20" s="11"/>
       <c r="AG20" s="8"/>
       <c r="AH20" s="8"/>
       <c r="AI20" s="8"/>
@@ -4393,20 +4368,20 @@
       <c r="P21" s="8"/>
       <c r="Q21" s="8"/>
       <c r="R21" s="8"/>
-      <c r="S21" s="9"/>
-      <c r="T21" s="10"/>
-      <c r="U21" s="10"/>
-      <c r="V21" s="10"/>
-      <c r="W21" s="11"/>
+      <c r="S21" s="8"/>
+      <c r="T21" s="8"/>
+      <c r="U21" s="8"/>
+      <c r="V21" s="8"/>
+      <c r="W21" s="8"/>
       <c r="X21" s="8"/>
       <c r="Y21" s="8"/>
       <c r="Z21" s="8"/>
       <c r="AA21" s="8"/>
-      <c r="AB21" s="8"/>
-      <c r="AC21" s="8"/>
-      <c r="AD21" s="8"/>
-      <c r="AE21" s="8"/>
-      <c r="AF21" s="8"/>
+      <c r="AB21" s="9"/>
+      <c r="AC21" s="10"/>
+      <c r="AD21" s="10"/>
+      <c r="AE21" s="10"/>
+      <c r="AF21" s="11"/>
       <c r="AG21" s="8"/>
       <c r="AH21" s="8"/>
       <c r="AI21" s="8"/>
@@ -4438,20 +4413,20 @@
       <c r="P22" s="8"/>
       <c r="Q22" s="8"/>
       <c r="R22" s="8"/>
-      <c r="S22" s="9"/>
-      <c r="T22" s="10"/>
-      <c r="U22" s="10"/>
-      <c r="V22" s="10"/>
-      <c r="W22" s="11"/>
+      <c r="S22" s="8"/>
+      <c r="T22" s="8"/>
+      <c r="U22" s="8"/>
+      <c r="V22" s="8"/>
+      <c r="W22" s="8"/>
       <c r="X22" s="8"/>
       <c r="Y22" s="8"/>
       <c r="Z22" s="8"/>
       <c r="AA22" s="8"/>
-      <c r="AB22" s="8"/>
-      <c r="AC22" s="8"/>
-      <c r="AD22" s="8"/>
-      <c r="AE22" s="8"/>
-      <c r="AF22" s="8"/>
+      <c r="AB22" s="9"/>
+      <c r="AC22" s="10"/>
+      <c r="AD22" s="10"/>
+      <c r="AE22" s="10"/>
+      <c r="AF22" s="11"/>
       <c r="AG22" s="8"/>
       <c r="AH22" s="8"/>
       <c r="AI22" s="8"/>
@@ -4483,20 +4458,20 @@
       <c r="P23" s="8"/>
       <c r="Q23" s="8"/>
       <c r="R23" s="8"/>
-      <c r="S23" s="9"/>
-      <c r="T23" s="10"/>
-      <c r="U23" s="10"/>
-      <c r="V23" s="10"/>
-      <c r="W23" s="11"/>
+      <c r="S23" s="8"/>
+      <c r="T23" s="8"/>
+      <c r="U23" s="8"/>
+      <c r="V23" s="8"/>
+      <c r="W23" s="8"/>
       <c r="X23" s="8"/>
       <c r="Y23" s="8"/>
       <c r="Z23" s="8"/>
       <c r="AA23" s="8"/>
-      <c r="AB23" s="8"/>
-      <c r="AC23" s="8"/>
-      <c r="AD23" s="8"/>
-      <c r="AE23" s="8"/>
-      <c r="AF23" s="8"/>
+      <c r="AB23" s="9"/>
+      <c r="AC23" s="10"/>
+      <c r="AD23" s="10"/>
+      <c r="AE23" s="10"/>
+      <c r="AF23" s="11"/>
       <c r="AG23" s="8"/>
       <c r="AH23" s="8"/>
       <c r="AI23" s="8"/>
@@ -4528,20 +4503,20 @@
       <c r="P24" s="8"/>
       <c r="Q24" s="8"/>
       <c r="R24" s="8"/>
-      <c r="S24" s="9"/>
-      <c r="T24" s="10"/>
-      <c r="U24" s="10"/>
-      <c r="V24" s="10"/>
-      <c r="W24" s="11"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="8"/>
+      <c r="U24" s="8"/>
+      <c r="V24" s="8"/>
+      <c r="W24" s="8"/>
       <c r="X24" s="8"/>
       <c r="Y24" s="8"/>
       <c r="Z24" s="8"/>
       <c r="AA24" s="8"/>
-      <c r="AB24" s="8"/>
-      <c r="AC24" s="8"/>
-      <c r="AD24" s="8"/>
-      <c r="AE24" s="8"/>
-      <c r="AF24" s="8"/>
+      <c r="AB24" s="9"/>
+      <c r="AC24" s="10"/>
+      <c r="AD24" s="10"/>
+      <c r="AE24" s="10"/>
+      <c r="AF24" s="11"/>
       <c r="AG24" s="8"/>
       <c r="AH24" s="8"/>
       <c r="AI24" s="8"/>
@@ -4573,20 +4548,20 @@
       <c r="P25" s="8"/>
       <c r="Q25" s="8"/>
       <c r="R25" s="8"/>
-      <c r="S25" s="9"/>
-      <c r="T25" s="10"/>
-      <c r="U25" s="10"/>
-      <c r="V25" s="10"/>
-      <c r="W25" s="11"/>
+      <c r="S25" s="8"/>
+      <c r="T25" s="8"/>
+      <c r="U25" s="8"/>
+      <c r="V25" s="8"/>
+      <c r="W25" s="8"/>
       <c r="X25" s="8"/>
       <c r="Y25" s="8"/>
       <c r="Z25" s="8"/>
       <c r="AA25" s="8"/>
-      <c r="AB25" s="8"/>
-      <c r="AC25" s="8"/>
-      <c r="AD25" s="8"/>
-      <c r="AE25" s="8"/>
-      <c r="AF25" s="8"/>
+      <c r="AB25" s="9"/>
+      <c r="AC25" s="10"/>
+      <c r="AD25" s="10"/>
+      <c r="AE25" s="10"/>
+      <c r="AF25" s="11"/>
       <c r="AG25" s="8"/>
       <c r="AH25" s="8"/>
       <c r="AI25" s="8"/>
@@ -4599,59 +4574,14 @@
       <c r="AP25" s="8"/>
       <c r="AQ25" s="8"/>
     </row>
-    <row r="26" spans="1:43" ht="22.2" customHeight="1">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="8"/>
-      <c r="P26" s="8"/>
-      <c r="Q26" s="8"/>
-      <c r="R26" s="8"/>
-      <c r="S26" s="9"/>
-      <c r="T26" s="10"/>
-      <c r="U26" s="10"/>
-      <c r="V26" s="10"/>
-      <c r="W26" s="11"/>
-      <c r="X26" s="8"/>
-      <c r="Y26" s="8"/>
-      <c r="Z26" s="8"/>
-      <c r="AA26" s="8"/>
-      <c r="AB26" s="8"/>
-      <c r="AC26" s="8"/>
-      <c r="AD26" s="8"/>
-      <c r="AE26" s="8"/>
-      <c r="AF26" s="8"/>
-      <c r="AG26" s="8"/>
-      <c r="AH26" s="8"/>
-      <c r="AI26" s="8"/>
-      <c r="AJ26" s="8"/>
-      <c r="AK26" s="8"/>
-      <c r="AL26" s="8"/>
-      <c r="AM26" s="8"/>
-      <c r="AN26" s="8"/>
-      <c r="AO26" s="8"/>
-      <c r="AP26" s="8"/>
-      <c r="AQ26" s="8"/>
-    </row>
   </sheetData>
-  <mergeCells count="126">
+  <mergeCells count="123">
     <mergeCell ref="A5:D5"/>
     <mergeCell ref="E5:H5"/>
     <mergeCell ref="I5:L5"/>
     <mergeCell ref="M5:R5"/>
-    <mergeCell ref="S5:W5"/>
-    <mergeCell ref="X5:AF5"/>
+    <mergeCell ref="AB5:AF5"/>
+    <mergeCell ref="S5:AA5"/>
     <mergeCell ref="AK1:AQ1"/>
     <mergeCell ref="M2:P2"/>
     <mergeCell ref="Q2:Z2"/>
@@ -4667,111 +4597,108 @@
     <mergeCell ref="AI1:AJ1"/>
     <mergeCell ref="M3:N3"/>
     <mergeCell ref="O3:AQ3"/>
-    <mergeCell ref="S7:W7"/>
-    <mergeCell ref="AG7:AL7"/>
-    <mergeCell ref="AM7:AQ7"/>
-    <mergeCell ref="S8:W8"/>
-    <mergeCell ref="X8:AF8"/>
-    <mergeCell ref="AG8:AL8"/>
-    <mergeCell ref="AM8:AQ8"/>
-    <mergeCell ref="X6:AF7"/>
-    <mergeCell ref="AG5:AL5"/>
-    <mergeCell ref="AM5:AQ5"/>
-    <mergeCell ref="S6:W6"/>
-    <mergeCell ref="AG6:AL6"/>
-    <mergeCell ref="AM6:AQ6"/>
-    <mergeCell ref="S10:W10"/>
-    <mergeCell ref="X10:AF10"/>
-    <mergeCell ref="AG10:AL10"/>
-    <mergeCell ref="AM10:AQ10"/>
-    <mergeCell ref="A11:D14"/>
-    <mergeCell ref="E11:H14"/>
-    <mergeCell ref="I11:L14"/>
-    <mergeCell ref="M11:R14"/>
-    <mergeCell ref="S11:W11"/>
-    <mergeCell ref="X11:AF11"/>
-    <mergeCell ref="A6:D10"/>
-    <mergeCell ref="E6:H10"/>
-    <mergeCell ref="I6:L10"/>
-    <mergeCell ref="M6:R10"/>
-    <mergeCell ref="AG13:AL13"/>
-    <mergeCell ref="AM13:AQ13"/>
-    <mergeCell ref="S14:W14"/>
-    <mergeCell ref="X14:AF14"/>
-    <mergeCell ref="AG14:AL14"/>
-    <mergeCell ref="AM14:AQ14"/>
-    <mergeCell ref="AG11:AL11"/>
-    <mergeCell ref="AM11:AQ11"/>
-    <mergeCell ref="S12:W12"/>
-    <mergeCell ref="X12:AF12"/>
-    <mergeCell ref="AG12:AL12"/>
-    <mergeCell ref="AM12:AQ12"/>
-    <mergeCell ref="A15:D18"/>
-    <mergeCell ref="E15:H18"/>
-    <mergeCell ref="I15:L18"/>
-    <mergeCell ref="M15:R18"/>
-    <mergeCell ref="S15:W15"/>
-    <mergeCell ref="X15:AF15"/>
-    <mergeCell ref="S17:W17"/>
-    <mergeCell ref="X17:AF17"/>
-    <mergeCell ref="S13:W13"/>
-    <mergeCell ref="X13:AF13"/>
-    <mergeCell ref="AG17:AL17"/>
-    <mergeCell ref="AM17:AQ17"/>
-    <mergeCell ref="S18:W18"/>
-    <mergeCell ref="X18:AF18"/>
-    <mergeCell ref="AG18:AL18"/>
-    <mergeCell ref="AM18:AQ18"/>
-    <mergeCell ref="AG15:AL15"/>
-    <mergeCell ref="AM15:AQ15"/>
-    <mergeCell ref="S16:W16"/>
-    <mergeCell ref="X16:AF16"/>
-    <mergeCell ref="AG16:AL16"/>
-    <mergeCell ref="AM16:AQ16"/>
-    <mergeCell ref="A23:D26"/>
-    <mergeCell ref="E23:H26"/>
-    <mergeCell ref="I23:L26"/>
-    <mergeCell ref="M23:R26"/>
-    <mergeCell ref="S23:W23"/>
-    <mergeCell ref="X23:AF23"/>
-    <mergeCell ref="S25:W25"/>
-    <mergeCell ref="X25:AF25"/>
-    <mergeCell ref="AG21:AL21"/>
-    <mergeCell ref="S22:W22"/>
-    <mergeCell ref="X22:AF22"/>
-    <mergeCell ref="AG22:AL22"/>
-    <mergeCell ref="A19:D22"/>
-    <mergeCell ref="E19:H22"/>
-    <mergeCell ref="I19:L22"/>
-    <mergeCell ref="M19:R22"/>
-    <mergeCell ref="S19:W19"/>
-    <mergeCell ref="X19:AF19"/>
-    <mergeCell ref="S21:W21"/>
-    <mergeCell ref="X21:AF21"/>
-    <mergeCell ref="S9:W9"/>
-    <mergeCell ref="X9:AF9"/>
-    <mergeCell ref="AG9:AL9"/>
-    <mergeCell ref="AM9:AQ9"/>
-    <mergeCell ref="AG25:AL25"/>
-    <mergeCell ref="AM25:AQ25"/>
-    <mergeCell ref="S26:W26"/>
-    <mergeCell ref="X26:AF26"/>
-    <mergeCell ref="AG26:AL26"/>
-    <mergeCell ref="AM26:AQ26"/>
-    <mergeCell ref="AG23:AL23"/>
-    <mergeCell ref="AM23:AQ23"/>
-    <mergeCell ref="S24:W24"/>
-    <mergeCell ref="X24:AF24"/>
-    <mergeCell ref="AG24:AL24"/>
-    <mergeCell ref="AM24:AQ24"/>
-    <mergeCell ref="AM21:AQ21"/>
-    <mergeCell ref="AM22:AQ22"/>
-    <mergeCell ref="AG19:AL19"/>
-    <mergeCell ref="AM19:AQ19"/>
-    <mergeCell ref="S20:W20"/>
-    <mergeCell ref="X20:AF20"/>
-    <mergeCell ref="AG20:AL20"/>
-    <mergeCell ref="AM20:AQ20"/>
+    <mergeCell ref="AB7:AF7"/>
+    <mergeCell ref="S7:AA7"/>
+    <mergeCell ref="AL7:AQ7"/>
+    <mergeCell ref="AG7:AK7"/>
+    <mergeCell ref="S6:AA6"/>
+    <mergeCell ref="AL5:AQ5"/>
+    <mergeCell ref="AG5:AK5"/>
+    <mergeCell ref="AB6:AF6"/>
+    <mergeCell ref="AL6:AQ6"/>
+    <mergeCell ref="AG6:AK6"/>
+    <mergeCell ref="AB9:AF9"/>
+    <mergeCell ref="S9:AA9"/>
+    <mergeCell ref="AL9:AQ9"/>
+    <mergeCell ref="AG9:AK9"/>
+    <mergeCell ref="A10:D13"/>
+    <mergeCell ref="E10:H13"/>
+    <mergeCell ref="I10:L13"/>
+    <mergeCell ref="M10:R13"/>
+    <mergeCell ref="AB10:AF10"/>
+    <mergeCell ref="S10:AA10"/>
+    <mergeCell ref="A6:D9"/>
+    <mergeCell ref="E6:H9"/>
+    <mergeCell ref="I6:L9"/>
+    <mergeCell ref="M6:R9"/>
+    <mergeCell ref="AL12:AQ12"/>
+    <mergeCell ref="AG12:AK12"/>
+    <mergeCell ref="AB13:AF13"/>
+    <mergeCell ref="S13:AA13"/>
+    <mergeCell ref="AL13:AQ13"/>
+    <mergeCell ref="AG13:AK13"/>
+    <mergeCell ref="AL10:AQ10"/>
+    <mergeCell ref="AG10:AK10"/>
+    <mergeCell ref="AB11:AF11"/>
+    <mergeCell ref="S11:AA11"/>
+    <mergeCell ref="AL11:AQ11"/>
+    <mergeCell ref="AG11:AK11"/>
+    <mergeCell ref="A14:D17"/>
+    <mergeCell ref="E14:H17"/>
+    <mergeCell ref="I14:L17"/>
+    <mergeCell ref="M14:R17"/>
+    <mergeCell ref="AB14:AF14"/>
+    <mergeCell ref="S14:AA14"/>
+    <mergeCell ref="AB16:AF16"/>
+    <mergeCell ref="S16:AA16"/>
+    <mergeCell ref="AB12:AF12"/>
+    <mergeCell ref="S12:AA12"/>
+    <mergeCell ref="AL16:AQ16"/>
+    <mergeCell ref="AG16:AK16"/>
+    <mergeCell ref="AB17:AF17"/>
+    <mergeCell ref="S17:AA17"/>
+    <mergeCell ref="AL17:AQ17"/>
+    <mergeCell ref="AG17:AK17"/>
+    <mergeCell ref="AL14:AQ14"/>
+    <mergeCell ref="AG14:AK14"/>
+    <mergeCell ref="AB15:AF15"/>
+    <mergeCell ref="S15:AA15"/>
+    <mergeCell ref="AL15:AQ15"/>
+    <mergeCell ref="AG15:AK15"/>
+    <mergeCell ref="A22:D25"/>
+    <mergeCell ref="E22:H25"/>
+    <mergeCell ref="I22:L25"/>
+    <mergeCell ref="M22:R25"/>
+    <mergeCell ref="AB22:AF22"/>
+    <mergeCell ref="S22:AA22"/>
+    <mergeCell ref="AB24:AF24"/>
+    <mergeCell ref="S24:AA24"/>
+    <mergeCell ref="AL20:AQ20"/>
+    <mergeCell ref="AB21:AF21"/>
+    <mergeCell ref="S21:AA21"/>
+    <mergeCell ref="AL21:AQ21"/>
+    <mergeCell ref="A18:D21"/>
+    <mergeCell ref="E18:H21"/>
+    <mergeCell ref="I18:L21"/>
+    <mergeCell ref="M18:R21"/>
+    <mergeCell ref="AB18:AF18"/>
+    <mergeCell ref="S18:AA18"/>
+    <mergeCell ref="AB20:AF20"/>
+    <mergeCell ref="S20:AA20"/>
+    <mergeCell ref="AB8:AF8"/>
+    <mergeCell ref="S8:AA8"/>
+    <mergeCell ref="AL8:AQ8"/>
+    <mergeCell ref="AG8:AK8"/>
+    <mergeCell ref="AL24:AQ24"/>
+    <mergeCell ref="AG24:AK24"/>
+    <mergeCell ref="AB25:AF25"/>
+    <mergeCell ref="S25:AA25"/>
+    <mergeCell ref="AL25:AQ25"/>
+    <mergeCell ref="AG25:AK25"/>
+    <mergeCell ref="AL22:AQ22"/>
+    <mergeCell ref="AG22:AK22"/>
+    <mergeCell ref="AB23:AF23"/>
+    <mergeCell ref="S23:AA23"/>
+    <mergeCell ref="AL23:AQ23"/>
+    <mergeCell ref="AG23:AK23"/>
+    <mergeCell ref="AG20:AK20"/>
+    <mergeCell ref="AG21:AK21"/>
+    <mergeCell ref="AL18:AQ18"/>
+    <mergeCell ref="AG18:AK18"/>
+    <mergeCell ref="AB19:AF19"/>
+    <mergeCell ref="S19:AA19"/>
+    <mergeCell ref="AL19:AQ19"/>
+    <mergeCell ref="AG19:AK19"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
